--- a/reports/sample-1.xlsx
+++ b/reports/sample-1.xlsx
@@ -16,7 +16,7 @@
     <definedName function="false" hidden="false" name="unit_person" vbProcedure="false">Sheet1!$C$5:$M$5</definedName>
     <definedName function="false" hidden="false" name="unit_sums" vbProcedure="false">Sheet1!$D$2:$M$2</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">{activity.GroupBy('office')}</t>
   </si>
   <si>
-    <t xml:space="preserve">{activity.embed(`${activity.office} összesen:`)}</t>
+    <t xml:space="preserve">{activity.embed(`${activity.office} sum:`)}</t>
   </si>
   <si>
     <t xml:space="preserve">{activity.GroupBy('office').Sum(activity.calls_win)}</t>
@@ -211,12 +211,11 @@
     <numFmt numFmtId="165" formatCode="00%"/>
     <numFmt numFmtId="166" formatCode="[$-40E]#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,6 +247,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,12 +302,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,10 +319,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,23 +335,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,185 +436,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="974" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.97"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+    <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="11" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
@@ -625,7 +627,7 @@
       <c r="G5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="0" t="s">
@@ -637,14 +639,13 @@
       <c r="K5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
